--- a/_debug/samples/sample_sheet_example.xlsx
+++ b/_debug/samples/sample_sheet_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaisc\WebProjects\adit\_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaisc\WebProjects\adit\_debug\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2FB3B5-862B-4CAC-ABD0-D38FBF372993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F906863-DB1C-47B3-9D90-CB05DA28DDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="0" windowWidth="20505" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
-    <t>RowID</t>
-  </si>
-  <si>
     <t>PatientID</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>3810104876</t>
   </si>
   <si>
-    <t>Solis, Joseph</t>
-  </si>
-  <si>
     <t>CT</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
     <t>0596370758</t>
   </si>
   <si>
-    <t>Adkins, James</t>
-  </si>
-  <si>
     <t>MR</t>
   </si>
   <si>
@@ -70,27 +61,18 @@
     <t>8319728669</t>
   </si>
   <si>
-    <t>Johnson, Denise</t>
-  </si>
-  <si>
     <t>8LWAKZ0G</t>
   </si>
   <si>
     <t>3255428443</t>
   </si>
   <si>
-    <t>Henry, Barbara</t>
-  </si>
-  <si>
     <t>KRS8CZ3S</t>
   </si>
   <si>
     <t>0161014371</t>
   </si>
   <si>
-    <t>Martin, Richard</t>
-  </si>
-  <si>
     <t>DX</t>
   </si>
   <si>
@@ -100,27 +82,18 @@
     <t>6552924950</t>
   </si>
   <si>
-    <t>Alvarez, Shawn</t>
-  </si>
-  <si>
     <t>RWB48FQL</t>
   </si>
   <si>
     <t>4456302360</t>
   </si>
   <si>
-    <t>Freeman, Robert</t>
-  </si>
-  <si>
     <t>30MX3T5N</t>
   </si>
   <si>
     <t>9132107504</t>
   </si>
   <si>
-    <t>Jennings, Tyler</t>
-  </si>
-  <si>
     <t>DRP94IHX</t>
   </si>
   <si>
@@ -143,6 +116,33 @@
   </si>
   <si>
     <t>Exclude</t>
+  </si>
+  <si>
+    <t>RequestID</t>
+  </si>
+  <si>
+    <t>Pineapple, Max</t>
+  </si>
+  <si>
+    <t>Avocado, Katja</t>
+  </si>
+  <si>
+    <t>Banana, Joe</t>
+  </si>
+  <si>
+    <t>Grapefruit, Kim</t>
+  </si>
+  <si>
+    <t>Pyrus, Richard</t>
+  </si>
+  <si>
+    <t>Cocounut, Julia</t>
+  </si>
+  <si>
+    <t>Melon, Robert</t>
+  </si>
+  <si>
+    <t>Paprika, Uma</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -517,28 +517,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>26339</v>
@@ -558,10 +558,10 @@
         <v>43908</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -569,10 +569,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>3957</v>
@@ -581,10 +581,10 @@
         <v>43639</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -592,10 +592,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>17482</v>
@@ -604,10 +604,10 @@
         <v>43717</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -615,10 +615,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>12075</v>
@@ -627,10 +627,10 @@
         <v>43980</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -638,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2">
         <v>4311</v>
@@ -650,10 +650,10 @@
         <v>43995</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -661,10 +661,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2">
         <v>16241</v>
@@ -673,10 +673,10 @@
         <v>43377</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -684,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>22315</v>
@@ -696,10 +696,10 @@
         <v>43354</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -707,10 +707,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
         <v>15719</v>
@@ -719,10 +719,10 @@
         <v>43623</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -730,10 +730,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>3841</v>
@@ -742,10 +742,10 @@
         <v>43703</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -753,10 +753,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2">
         <v>38098</v>
@@ -765,10 +765,10 @@
         <v>43763</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
